--- a/DwellScanningEyeTrack/img_training/Week4/map1.xlsx
+++ b/DwellScanningEyeTrack/img_training/Week4/map1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\עמית 1 נוב 2013\פוסט\collaborations GCMRT\DP studies - NIH\Training task\Final - mixed blocks\Block 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\עמית 1 נוב 2013\פוסט\collaborations GCMRT\DP studies - NIH\Training task\Take 2\Final - mixed blocks\Block 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -90,10 +90,10 @@
     <t>block 1 matrix 1.bmp</t>
   </si>
   <si>
+    <t>NE</t>
+  </si>
+  <si>
     <t>DI</t>
-  </si>
-  <si>
-    <t>NE</t>
   </si>
   <si>
     <t>block 1 matrix 2.bmp</t>
@@ -1006,19 +1006,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A17" sqref="A17:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="4.796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1106,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
         <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
         <v>24</v>
@@ -1127,19 +1124,19 @@
         <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R2" t="s">
         <v>24</v>
       </c>
       <c r="S2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T2" t="s">
         <v>23</v>
@@ -1162,49 +1159,49 @@
         <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N3" t="s">
         <v>23</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S3" t="s">
         <v>23</v>
       </c>
       <c r="T3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U3" t="s">
         <v>24</v>
@@ -1227,13 +1224,13 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
@@ -1251,25 +1248,25 @@
         <v>23</v>
       </c>
       <c r="O4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1286,16 +1283,16 @@
         <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
         <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
         <v>23</v>
@@ -1307,31 +1304,31 @@
         <v>23</v>
       </c>
       <c r="M5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1351,7 +1348,7 @@
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
         <v>24</v>
@@ -1360,22 +1357,22 @@
         <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L6" t="s">
         <v>23</v>
       </c>
       <c r="M6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N6" t="s">
         <v>23</v>
       </c>
       <c r="O6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P6" t="s">
         <v>24</v>
@@ -1384,16 +1381,16 @@
         <v>24</v>
       </c>
       <c r="R6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T6" t="s">
         <v>23</v>
       </c>
       <c r="U6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1410,22 +1407,22 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
         <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L7" t="s">
         <v>24</v>
@@ -1434,19 +1431,19 @@
         <v>24</v>
       </c>
       <c r="N7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7" t="s">
         <v>23</v>
       </c>
       <c r="Q7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S7" t="s">
         <v>24</v>
@@ -1455,7 +1452,7 @@
         <v>23</v>
       </c>
       <c r="U7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1484,13 +1481,13 @@
         <v>23</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M8" t="s">
         <v>24</v>
@@ -1499,22 +1496,22 @@
         <v>24</v>
       </c>
       <c r="O8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q8" t="s">
         <v>24</v>
       </c>
       <c r="R8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U8" t="s">
         <v>23</v>
@@ -1534,13 +1531,13 @@
         <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
         <v>23</v>
@@ -1549,10 +1546,10 @@
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M9" t="s">
         <v>24</v>
@@ -1567,19 +1564,19 @@
         <v>23</v>
       </c>
       <c r="Q9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1599,37 +1596,37 @@
         <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" t="s">
         <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K10" t="s">
         <v>23</v>
       </c>
       <c r="L10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M10" t="s">
         <v>24</v>
       </c>
       <c r="N10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O10" t="s">
         <v>24</v>
       </c>
       <c r="P10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R10" t="s">
         <v>23</v>
@@ -1641,7 +1638,7 @@
         <v>24</v>
       </c>
       <c r="U10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1667,43 +1664,43 @@
         <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S11" t="s">
         <v>24</v>
       </c>
       <c r="T11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1723,13 +1720,13 @@
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
         <v>24</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J12" t="s">
         <v>23</v>
@@ -1744,7 +1741,7 @@
         <v>23</v>
       </c>
       <c r="N12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O12" t="s">
         <v>23</v>
@@ -1753,16 +1750,16 @@
         <v>24</v>
       </c>
       <c r="Q12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S12" t="s">
         <v>23</v>
       </c>
       <c r="T12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U12" t="s">
         <v>24</v>
@@ -1785,7 +1782,7 @@
         <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
         <v>23</v>
@@ -1794,7 +1791,7 @@
         <v>24</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K13" t="s">
         <v>23</v>
@@ -1803,7 +1800,7 @@
         <v>24</v>
       </c>
       <c r="M13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N13" t="s">
         <v>24</v>
@@ -1824,7 +1821,7 @@
         <v>24</v>
       </c>
       <c r="T13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U13" t="s">
         <v>23</v>
@@ -1856,7 +1853,7 @@
         <v>23</v>
       </c>
       <c r="J14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14" t="s">
         <v>23</v>
@@ -1877,19 +1874,19 @@
         <v>24</v>
       </c>
       <c r="Q14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R14" t="s">
         <v>23</v>
       </c>
       <c r="S14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T14" t="s">
         <v>23</v>
       </c>
       <c r="U14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1906,19 +1903,19 @@
         <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
         <v>23</v>
       </c>
       <c r="H15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K15" t="s">
         <v>23</v>
@@ -1930,25 +1927,25 @@
         <v>24</v>
       </c>
       <c r="N15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S15" t="s">
         <v>24</v>
       </c>
       <c r="T15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U15" t="s">
         <v>23</v>
@@ -1971,19 +1968,19 @@
         <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J16" t="s">
         <v>24</v>
       </c>
       <c r="K16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L16" t="s">
         <v>24</v>
@@ -1995,16 +1992,16 @@
         <v>24</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P16" t="s">
         <v>23</v>
       </c>
       <c r="Q16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S16" t="s">
         <v>23</v>
@@ -2013,7 +2010,7 @@
         <v>23</v>
       </c>
       <c r="U16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2030,7 +2027,7 @@
         <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G17" t="s">
         <v>24</v>
@@ -2048,28 +2045,28 @@
         <v>24</v>
       </c>
       <c r="L17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P17" t="s">
         <v>23</v>
       </c>
       <c r="Q17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T17" t="s">
         <v>23</v>
@@ -2092,13 +2089,13 @@
         <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I18" t="s">
         <v>23</v>
@@ -2110,10 +2107,10 @@
         <v>24</v>
       </c>
       <c r="L18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N18" t="s">
         <v>24</v>
@@ -2122,22 +2119,22 @@
         <v>23</v>
       </c>
       <c r="P18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R18" t="s">
         <v>23</v>
       </c>
       <c r="S18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2160,25 +2157,25 @@
         <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M19" t="s">
         <v>24</v>
       </c>
       <c r="N19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O19" t="s">
         <v>23</v>
@@ -2193,10 +2190,10 @@
         <v>23</v>
       </c>
       <c r="S19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U19" t="s">
         <v>23</v>
@@ -2222,19 +2219,19 @@
         <v>23</v>
       </c>
       <c r="H20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I20" t="s">
         <v>24</v>
       </c>
       <c r="J20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M20" t="s">
         <v>23</v>
@@ -2249,19 +2246,19 @@
         <v>23</v>
       </c>
       <c r="Q20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T20" t="s">
         <v>23</v>
       </c>
       <c r="U20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2281,16 +2278,16 @@
         <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K21" t="s">
         <v>24</v>
@@ -2299,7 +2296,7 @@
         <v>23</v>
       </c>
       <c r="M21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N21" t="s">
         <v>23</v>
@@ -2311,19 +2308,19 @@
         <v>24</v>
       </c>
       <c r="Q21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2340,25 +2337,25 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I22" t="s">
         <v>23</v>
       </c>
       <c r="J22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M22" t="s">
         <v>24</v>
@@ -2373,19 +2370,19 @@
         <v>23</v>
       </c>
       <c r="Q22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S22" t="s">
         <v>23</v>
       </c>
       <c r="T22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2402,7 +2399,7 @@
         <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G23" t="s">
         <v>23</v>
@@ -2411,28 +2408,28 @@
         <v>23</v>
       </c>
       <c r="I23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J23" t="s">
         <v>24</v>
       </c>
       <c r="K23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N23" t="s">
         <v>23</v>
       </c>
       <c r="O23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q23" t="s">
         <v>24</v>
@@ -2441,13 +2438,13 @@
         <v>24</v>
       </c>
       <c r="S23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2464,10 +2461,10 @@
         <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H24" t="s">
         <v>23</v>
@@ -2479,7 +2476,7 @@
         <v>23</v>
       </c>
       <c r="K24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L24" t="s">
         <v>23</v>
@@ -2488,16 +2485,16 @@
         <v>23</v>
       </c>
       <c r="N24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O24" t="s">
         <v>24</v>
       </c>
       <c r="P24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R24" t="s">
         <v>24</v>
@@ -2506,10 +2503,10 @@
         <v>24</v>
       </c>
       <c r="T24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2526,13 +2523,13 @@
         <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G25" t="s">
         <v>23</v>
       </c>
       <c r="H25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I25" t="s">
         <v>24</v>
@@ -2541,22 +2538,22 @@
         <v>23</v>
       </c>
       <c r="K25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q25" t="s">
         <v>24</v>
@@ -2565,10 +2562,10 @@
         <v>23</v>
       </c>
       <c r="S25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U25" t="s">
         <v>24</v>
@@ -2591,7 +2588,7 @@
         <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H26" t="s">
         <v>24</v>
@@ -2609,10 +2606,10 @@
         <v>24</v>
       </c>
       <c r="M26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O26" t="s">
         <v>24</v>
@@ -2621,16 +2618,16 @@
         <v>23</v>
       </c>
       <c r="Q26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S26" t="s">
         <v>23</v>
       </c>
       <c r="T26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U26" t="s">
         <v>23</v>
@@ -2659,43 +2656,43 @@
         <v>24</v>
       </c>
       <c r="I27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L27" t="s">
         <v>24</v>
       </c>
       <c r="M27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O27" t="s">
         <v>23</v>
       </c>
       <c r="P27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R27" t="s">
         <v>24</v>
       </c>
       <c r="S27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2715,7 +2712,7 @@
         <v>24</v>
       </c>
       <c r="G28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H28" t="s">
         <v>23</v>
@@ -2724,13 +2721,13 @@
         <v>23</v>
       </c>
       <c r="J28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M28" t="s">
         <v>24</v>
@@ -2739,10 +2736,10 @@
         <v>23</v>
       </c>
       <c r="O28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q28" t="s">
         <v>23</v>
@@ -2777,7 +2774,7 @@
         <v>24</v>
       </c>
       <c r="G29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H29" t="s">
         <v>24</v>
@@ -2795,10 +2792,10 @@
         <v>23</v>
       </c>
       <c r="M29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O29" t="s">
         <v>23</v>
@@ -2807,19 +2804,19 @@
         <v>24</v>
       </c>
       <c r="Q29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R29" t="s">
         <v>23</v>
       </c>
       <c r="S29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T29" t="s">
         <v>23</v>
       </c>
       <c r="U29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2842,16 +2839,16 @@
         <v>23</v>
       </c>
       <c r="H30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I30" t="s">
         <v>24</v>
       </c>
       <c r="J30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L30" t="s">
         <v>23</v>
@@ -2860,13 +2857,13 @@
         <v>24</v>
       </c>
       <c r="N30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O30" t="s">
         <v>24</v>
       </c>
       <c r="P30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q30" t="s">
         <v>23</v>
@@ -2875,7 +2872,7 @@
         <v>23</v>
       </c>
       <c r="S30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T30" t="s">
         <v>24</v>
@@ -2901,28 +2898,28 @@
         <v>23</v>
       </c>
       <c r="G31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I31" t="s">
         <v>24</v>
       </c>
       <c r="J31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M31" t="s">
         <v>24</v>
       </c>
       <c r="N31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O31" t="s">
         <v>23</v>
@@ -2931,7 +2928,7 @@
         <v>24</v>
       </c>
       <c r="Q31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R31" t="s">
         <v>23</v>
@@ -2943,7 +2940,7 @@
         <v>24</v>
       </c>
       <c r="U31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
